--- a/расчёт ГВ.xlsx
+++ b/расчёт ГВ.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Irlandez\Desktop\solution\ppTechVent\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7195611C-3D76-46D0-89EF-0D853CA9B065}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7417CBBC-6554-478E-8D55-90C7C57F8FE9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7170" yWindow="16710" windowWidth="21600" windowHeight="8235" xr2:uid="{293CCC34-60A2-4CC1-8923-73751DB80D1F}"/>
+    <workbookView xWindow="14100" yWindow="6735" windowWidth="10590" windowHeight="7935" xr2:uid="{293CCC34-60A2-4CC1-8923-73751DB80D1F}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -54,7 +54,7 @@
     <t>мин длина</t>
   </si>
   <si>
-    <t>скорость мин</t>
+    <t>скорость min</t>
   </si>
 </sst>
 </file>
@@ -442,7 +442,7 @@
   <dimension ref="A1:H28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -468,7 +468,7 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>5</v>
@@ -477,7 +477,7 @@
         <v>6</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -497,15 +497,15 @@
         <v>4</v>
       </c>
       <c r="F2" s="2">
-        <f>D2-(B2/2+100)</f>
+        <f t="shared" ref="F2:F9" si="0">D2-((B2/2)+100)</f>
         <v>1000</v>
       </c>
       <c r="G2" s="2">
-        <f>A2/(3600*E2/1000*C2/1000)</f>
+        <f t="shared" ref="G2:G9" si="1">A2/(3600*(E2/1000)*(C2/1000))</f>
         <v>496.03174603174602</v>
       </c>
       <c r="H2" s="2">
-        <f>A2/(3600*F2/1000*C2/1000)</f>
+        <f t="shared" ref="H2:H28" si="2">A2/(3600*(F2/1000)*(C2/1000))</f>
         <v>1.9841269841269842</v>
       </c>
     </row>
@@ -526,15 +526,15 @@
         <v>4</v>
       </c>
       <c r="F3" s="2">
-        <f>D3-(B3/2+100)</f>
+        <f t="shared" si="0"/>
         <v>1000</v>
       </c>
       <c r="G3" s="2">
-        <f>A3/(3600*E3/1000*C3/1000)</f>
+        <f t="shared" si="1"/>
         <v>992.06349206349205</v>
       </c>
       <c r="H3" s="2">
-        <f>A3/(3600*F3/1000*C3/1000)</f>
+        <f t="shared" si="2"/>
         <v>3.9682539682539684</v>
       </c>
     </row>
@@ -555,16 +555,16 @@
         <v>4</v>
       </c>
       <c r="F4" s="2">
-        <f t="shared" ref="F4:F28" si="0">D4-(B4/2+100)</f>
+        <f t="shared" si="0"/>
         <v>760</v>
       </c>
       <c r="G4" s="2">
-        <f t="shared" ref="G4:G28" si="1">A4/(3600*E4/1000*C4/1000)</f>
+        <f>A4/(3600*(E4/1000)*(C4/1000))</f>
         <v>496.03174603174602</v>
       </c>
       <c r="H4" s="2">
-        <f t="shared" ref="H4:H28" si="2">A4/(3600*F4/1000*C4/1000)</f>
-        <v>2.6106934001670843</v>
+        <f t="shared" si="2"/>
+        <v>2.6106934001670847</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -618,7 +618,7 @@
       </c>
       <c r="G6" s="2">
         <f t="shared" si="1"/>
-        <v>347.22222222222223</v>
+        <v>347.22222222222217</v>
       </c>
       <c r="H6" s="2">
         <f t="shared" si="2"/>
@@ -713,54 +713,90 @@
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>1000</v>
+      </c>
+      <c r="B10">
+        <v>220</v>
+      </c>
+      <c r="C10">
+        <v>500</v>
+      </c>
+      <c r="D10">
+        <v>250</v>
+      </c>
       <c r="E10">
         <v>4</v>
       </c>
       <c r="F10" s="2">
-        <f t="shared" si="0"/>
-        <v>-100</v>
-      </c>
-      <c r="G10" s="2" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H10" s="2" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+        <f>D10-((B10/2)+100)</f>
+        <v>40</v>
+      </c>
+      <c r="G10" s="2">
+        <f>A10/(3600*(E10/1000)*(C10/1000))</f>
+        <v>138.88888888888889</v>
+      </c>
+      <c r="H10" s="2">
+        <f>A10/(3600*(F10/1000)*(C10/1000))</f>
+        <v>13.888888888888889</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>1000</v>
+      </c>
+      <c r="B11">
+        <v>220</v>
+      </c>
+      <c r="C11">
+        <v>500</v>
+      </c>
+      <c r="D11">
+        <v>700</v>
+      </c>
       <c r="E11">
         <v>4</v>
       </c>
       <c r="F11" s="2">
-        <f t="shared" si="0"/>
-        <v>-100</v>
-      </c>
-      <c r="G11" s="2" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H11" s="2" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+        <f t="shared" ref="F11:F28" si="3">D11-((B11/2)+100)</f>
+        <v>490</v>
+      </c>
+      <c r="G11" s="2">
+        <f t="shared" ref="G11:G28" si="4">A11/(3600*(E11/1000)*(C11/1000))</f>
+        <v>138.88888888888889</v>
+      </c>
+      <c r="H11" s="2">
+        <f t="shared" si="2"/>
+        <v>1.1337868480725624</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>5000</v>
+      </c>
+      <c r="B12">
+        <v>220</v>
+      </c>
+      <c r="C12">
+        <v>1000</v>
+      </c>
+      <c r="D12">
+        <v>1000</v>
+      </c>
       <c r="E12">
         <v>4</v>
       </c>
       <c r="F12" s="2">
-        <f t="shared" si="0"/>
-        <v>-100</v>
-      </c>
-      <c r="G12" s="2" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H12" s="2" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+        <f t="shared" si="3"/>
+        <v>790</v>
+      </c>
+      <c r="G12" s="2">
+        <f t="shared" si="4"/>
+        <v>347.22222222222223</v>
+      </c>
+      <c r="H12" s="2">
+        <f t="shared" si="2"/>
+        <v>1.7580872011251758</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -768,11 +804,11 @@
         <v>4</v>
       </c>
       <c r="F13" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>-100</v>
       </c>
       <c r="G13" s="2" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H13" s="2" t="e">
@@ -785,11 +821,11 @@
         <v>4</v>
       </c>
       <c r="F14" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>-100</v>
       </c>
       <c r="G14" s="2" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H14" s="2" t="e">
@@ -802,11 +838,11 @@
         <v>4</v>
       </c>
       <c r="F15" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>-100</v>
       </c>
       <c r="G15" s="2" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H15" s="2" t="e">
@@ -819,11 +855,11 @@
         <v>4</v>
       </c>
       <c r="F16" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>-100</v>
       </c>
       <c r="G16" s="2" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H16" s="2" t="e">
@@ -836,11 +872,11 @@
         <v>4</v>
       </c>
       <c r="F17" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>-100</v>
       </c>
       <c r="G17" s="2" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H17" s="2" t="e">
@@ -853,11 +889,11 @@
         <v>4</v>
       </c>
       <c r="F18" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>-100</v>
       </c>
       <c r="G18" s="2" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H18" s="2" t="e">
@@ -870,11 +906,11 @@
         <v>4</v>
       </c>
       <c r="F19" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>-100</v>
       </c>
       <c r="G19" s="2" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H19" s="2" t="e">
@@ -887,11 +923,11 @@
         <v>4</v>
       </c>
       <c r="F20" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>-100</v>
       </c>
       <c r="G20" s="2" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H20" s="2" t="e">
@@ -904,11 +940,11 @@
         <v>4</v>
       </c>
       <c r="F21" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>-100</v>
       </c>
       <c r="G21" s="2" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H21" s="2" t="e">
@@ -921,11 +957,11 @@
         <v>4</v>
       </c>
       <c r="F22" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>-100</v>
       </c>
       <c r="G22" s="2" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H22" s="2" t="e">
@@ -938,11 +974,11 @@
         <v>4</v>
       </c>
       <c r="F23" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>-100</v>
       </c>
       <c r="G23" s="2" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H23" s="2" t="e">
@@ -955,11 +991,11 @@
         <v>4</v>
       </c>
       <c r="F24" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>-100</v>
       </c>
       <c r="G24" s="2" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H24" s="2" t="e">
@@ -972,11 +1008,11 @@
         <v>4</v>
       </c>
       <c r="F25" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>-100</v>
       </c>
       <c r="G25" s="2" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H25" s="2" t="e">
@@ -989,11 +1025,11 @@
         <v>4</v>
       </c>
       <c r="F26" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>-100</v>
       </c>
       <c r="G26" s="2" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H26" s="2" t="e">
@@ -1006,11 +1042,11 @@
         <v>4</v>
       </c>
       <c r="F27" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>-100</v>
       </c>
       <c r="G27" s="2" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H27" s="2" t="e">
@@ -1023,11 +1059,11 @@
         <v>4</v>
       </c>
       <c r="F28" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>-100</v>
       </c>
       <c r="G28" s="2" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H28" s="2" t="e">
